--- a/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
+++ b/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
   <si>
     <t xml:space="preserve">Vastausaika</t>
   </si>
@@ -323,6 +323,81 @@
   </si>
   <si>
     <t xml:space="preserve">Kimppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käsitelty kirjaamossa (tämän kohdan täyttää käsittelijä)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muutos aikaisemman ilmoituksen tietoihin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tytti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuntematon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0400123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tytti@laulumuisto.fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hatustaheitettykatu 5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUNTO OY KAHDEN LAULUMUISTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARJUKATU 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456789A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerrostalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tammikuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helmikuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maaliskuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huhtikuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toukokuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syyskuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokakuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marraskuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joulukuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kompostoria käyttää yksi rakennus, joka on ilmoitettu yllä Kompostorin sijainti -kohdassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yksittäinen</t>
   </si>
 </sst>
 </file>
@@ -334,7 +409,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -361,6 +436,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -417,7 +506,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -451,6 +540,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,10 +675,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AZ5" activeCellId="0" sqref="AZ5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BR3" activeCellId="0" sqref="BR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -963,7 +1060,174 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR3" s="8" t="n">
+        <v>46446</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="tytti@laulumuisto.fi"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
+++ b/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="125">
   <si>
     <t xml:space="preserve">Vastausaika</t>
   </si>
@@ -317,9 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve">Käsitelty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2027-01-11 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Kimppa</t>
@@ -677,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR3" activeCellId="0" sqref="BR3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BN13" activeCellId="0" sqref="BN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,7 +693,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="52" style="2" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="70" min="70" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="3" width="17.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,73 +1050,73 @@
       <c r="BQ2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="8" t="n">
+        <v>46398.0000081019</v>
+      </c>
+      <c r="BT2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="Y3" s="1" t="n">
         <v>5</v>
@@ -1140,25 +1137,25 @@
         <v>86</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>87</v>
@@ -1170,58 +1167,58 @@
         <v>89</v>
       </c>
       <c r="AR3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="AW3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AX3" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="AY3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="BR3" s="8" t="n">
-        <v>46446</v>
+        <v>46446.000005787</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
+++ b/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
@@ -406,7 +406,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,6 +434,11 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -503,7 +508,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -536,15 +541,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:BT3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN13" activeCellId="0" sqref="BN13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -952,10 +961,10 @@
         <v>81</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>79</v>
@@ -1050,7 +1059,7 @@
       <c r="BQ2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BR2" s="8" t="n">
+      <c r="BR2" s="9" t="n">
         <v>46398.0000081019</v>
       </c>
       <c r="BT2" s="1" t="s">
@@ -1061,7 +1070,7 @@
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1076,7 +1085,7 @@
       <c r="F3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1214,7 +1223,7 @@
       <c r="BQ3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BR3" s="8" t="n">
+      <c r="BR3" s="9" t="n">
         <v>46446.000005787</v>
       </c>
       <c r="BT3" s="1" t="s">

--- a/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
+++ b/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
@@ -406,7 +406,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,11 +434,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -508,7 +503,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,19 +536,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -681,10 +672,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BT4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -963,7 +954,7 @@
       <c r="N2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="P2" s="7" t="s">
@@ -1059,7 +1050,7 @@
       <c r="BQ2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BR2" s="9" t="n">
+      <c r="BR2" s="8" t="n">
         <v>46398.0000081019</v>
       </c>
       <c r="BT2" s="1" t="s">
@@ -1070,7 +1061,7 @@
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1085,7 +1076,7 @@
       <c r="F3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1223,12 +1214,28 @@
       <c r="BQ3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BR3" s="9" t="n">
+      <c r="BR3" s="8" t="n">
         <v>46446.000005787</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>124</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BR4" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
+++ b/tests/data/test_kompostori/ilmoitukset_lisaa_komposti_osakas.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">Kompostorin käyttökuukaudet kalenterivuoden aikana:Joulukuu</t>
   </si>
   <si>
-    <t xml:space="preserve">Kompostoria käyttävien rakennusten lukumäärä</t>
+    <t xml:space="preserve">Kompostoria käyttävien asuinhuoneistojen lukumäärä</t>
   </si>
   <si>
     <t xml:space="preserve">1. Kompostoria käyttävän rakennuksen tiedot:Haltijan etunimi</t>
@@ -437,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -561,133 +561,27 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BT4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV1" activeCellId="0" sqref="AV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="53.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="49.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="50.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="51.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="51.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="54.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="57.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.53"/>
